--- a/biology/Botanique/Hommes_et_plantes/Hommes_et_plantes.xlsx
+++ b/biology/Botanique/Hommes_et_plantes/Hommes_et_plantes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hommes et plantes est une revue trimestrielle  (ISSN 1163-4464) créée en 1992 afin de mieux faire connaître les idées et l'action de l'association du Conservatoire des collections végétales spécialisées (CCVS). La revue est écrite par des professionnels et des amateurs passionnés. Elle publie des reportages sur les collections végétales existantes en France et à l'étranger. Elle présente des témoignages de collectionneurs, des articles scientifiques et des reportages sur les végétaux dans leur biotope ou en collections. 
 Hommes et plantes met en valeur l'histoire des hommes qui, parfois au péril de leur vie, sont partis chercher, partout à travers le monde, des plantes destinées à nourrir, soigner ou embellir l'environnement.
@@ -512,7 +524,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On retrouve régulièrement les sujets suivants :
 Collections : le monde des collectionneurs de plantes qui sauvent d'une mort certaine de nombreuses espèces (cahier central).
@@ -551,6 +565,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
